--- a/day01/data/sample_1.xlsx
+++ b/day01/data/sample_1.xlsx
@@ -67,7 +67,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -178,13 +178,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +500,7 @@
     <col min="4" max="4" style="11" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -536,7 +536,7 @@
         <v>85815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -550,7 +550,7 @@
         <v>125241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -564,7 +564,7 @@
         <v>299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -578,7 +578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -592,7 +592,7 @@
         <v>124486</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -606,7 +606,7 @@
         <v>163466</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
